--- a/Jamica/Feedback.xlsx
+++ b/Jamica/Feedback.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="3480" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Author</t>
   </si>
@@ -49,6 +49,95 @@
   </si>
   <si>
     <t>Documentation Updated</t>
+  </si>
+  <si>
+    <t>Wearable Embedded Camera</t>
+  </si>
+  <si>
+    <t>Malcolm</t>
+  </si>
+  <si>
+    <t>9a388c9</t>
+  </si>
+  <si>
+    <t>Product Functionality.txt</t>
+  </si>
+  <si>
+    <t>Files has placeholder template name</t>
+  </si>
+  <si>
+    <t>Rename file to a project specific name</t>
+  </si>
+  <si>
+    <t>Weight, length, width. Is this the size of a wearable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you mean by "Initial indicator"? </t>
+  </si>
+  <si>
+    <t>move it to the Behavior Definition. Generally battery charging is handled with a  separate state machine to because the battery state is independent of the other functionality</t>
+  </si>
+  <si>
+    <t>Battery: "- Sends signal to the LED indicator" This would be shown on the block daiagram so it is not unecessary here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charger: "Changes color when battery is fully charged" is a behavior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charger:" Interfaces between power supply and battery" is shown on the block diagram </t>
+  </si>
+  <si>
+    <t>Camera:: Connects to processor" is shown in block diagram</t>
+  </si>
+  <si>
+    <t>Camera:" Programmable" - what are you going to program?</t>
+  </si>
+  <si>
+    <t>This can be removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processor: Respond to power button
+                    Powered by the battery
+This is show in the block diagram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processor: "Shuts down safely if battery dies unexpectedly??" is a behavior. </t>
+  </si>
+  <si>
+    <t>This can be moved to the bahavior definition. Generally this is a really good behavior to have since it prevents damage to the processor. It is called brownout detection and comes standard in most processors</t>
+  </si>
+  <si>
+    <t>Operating Temperature: ?</t>
+  </si>
+  <si>
+    <t>What environment will the product be exposed to. You can read about the standard Operating Temperature ranges here 
+https://en.wikipedia.org/wiki/Operating_temperature</t>
+  </si>
+  <si>
+    <t>Display: "- Responsive to touch
+                   - Has ability to control actions of camera - play, pause, record" Can be separated into its own feature</t>
+  </si>
+  <si>
+    <t>You can buy separate touch screen from displays if you want and they have different requirements so it is good to consider them separately. It is possible that when you implement these features you may find a single display with a built in touch screen but that is not guranteed</t>
+  </si>
+  <si>
+    <t>Initial State: Storing
+      System stores what has been recorded</t>
+  </si>
+  <si>
+    <t>Camera can record direct to memory (like an SD card) so you can combine this to the recording step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you get to the reconrding state? </t>
+  </si>
+  <si>
+    <t>The touch screen can "control actions of camera - play, pause, record"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Is the different between "Normal" and "Idle" states </t>
+  </si>
+  <si>
+    <t>The behairos that use this feactures are not enumerated</t>
   </si>
 </sst>
 </file>
@@ -129,7 +218,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -175,8 +264,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -204,8 +297,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -228,6 +322,8 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -250,6 +346,8 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,16 +677,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="9" customWidth="1"/>
     <col min="4" max="4" width="55" style="10" customWidth="1"/>
     <col min="5" max="5" width="66.5" style="10" customWidth="1"/>
@@ -610,7 +708,9 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>42882</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="4"/>
@@ -619,7 +719,9 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="4"/>
@@ -660,6 +762,122 @@
       </c>
       <c r="F6" s="7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="64">
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32">
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="48">
+      <c r="D12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32">
+      <c r="D13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="D14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="D15" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="64">
+      <c r="D16" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="48">
+      <c r="D17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="64">
+      <c r="D18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="32">
+      <c r="D19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" ht="32">
+      <c r="D21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Jamica/Feedback.xlsx
+++ b/Jamica/Feedback.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>Author</t>
   </si>
@@ -218,8 +218,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -299,7 +301,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -324,6 +326,7 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -348,6 +351,7 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,7 +684,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -782,11 +786,29 @@
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="64">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="10" t="s">
         <v>28</v>
       </c>
@@ -795,16 +817,43 @@
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32">
+      <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="48">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D12" s="10" t="s">
         <v>20</v>
       </c>
@@ -813,6 +862,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="32">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D13" s="10" t="s">
         <v>21</v>
       </c>
@@ -821,6 +879,15 @@
       </c>
     </row>
     <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D14" s="10" t="s">
         <v>22</v>
       </c>
@@ -829,16 +896,43 @@
       </c>
     </row>
     <row r="15" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="64">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D16" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="48">
+    <row r="17" spans="1:5" ht="48">
+      <c r="A17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="10" t="s">
         <v>26</v>
       </c>
@@ -846,7 +940,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="4:5" ht="64">
+    <row r="18" spans="1:5" ht="64">
+      <c r="A18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="10" t="s">
         <v>30</v>
       </c>
@@ -854,7 +957,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="32">
+    <row r="19" spans="1:5" ht="32">
+      <c r="A19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="10" t="s">
         <v>32</v>
       </c>
@@ -862,12 +974,30 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D20" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="32">
+    <row r="21" spans="1:5" ht="32">
+      <c r="A21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D21" s="10" t="s">
         <v>35</v>
       </c>
@@ -875,7 +1005,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="1:5">
+      <c r="A22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D22" s="10" t="s">
         <v>36</v>
       </c>

--- a/Jamica/Feedback.xlsx
+++ b/Jamica/Feedback.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="75">
   <si>
     <t>Author</t>
   </si>
@@ -138,6 +138,144 @@
   </si>
   <si>
     <t>The behairos that use this feactures are not enumerated</t>
+  </si>
+  <si>
+    <t>Functionality List</t>
+  </si>
+  <si>
+    <t>LED Indicator:"- Used to display system states
+            States: Normal, Sleep, Recording (respective to colors above)"</t>
+  </si>
+  <si>
+    <t>This describes behavior and so should be moved to the state Product States section</t>
+  </si>
+  <si>
+    <t>5f57365</t>
+  </si>
+  <si>
+    <t>Systems State missing LED color</t>
+  </si>
+  <si>
+    <t>Add respective colors</t>
+  </si>
+  <si>
+    <t>Still not removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparate System Block Characteristic from implementation. For example you use the Raspbeery Pi Zero in the project but what if you used a different processor next time. What are the characteristics of both processors that you must have. </t>
+  </si>
+  <si>
+    <t>See Wearable Embedded Camera Functionality List MK Comments.txt to see how I separated the implementation out from the characteristics</t>
+  </si>
+  <si>
+    <t>Flow Diagram</t>
+  </si>
+  <si>
+    <t>Hardware Block Diagram</t>
+  </si>
+  <si>
+    <t>See The Flow Daigram Grammar and block digram for notes</t>
+  </si>
+  <si>
+    <t>Signal flow needs to be updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siganl flow needs to be updated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We talked about this on Monday. </t>
+  </si>
+  <si>
+    <t>Event: Device is idle for 5 minutes
+           1. Device goes to power saving, sleep mode</t>
+  </si>
+  <si>
+    <t>This is how you get into the sleep state not an event that happens in it. Move this to the states where the event can happen</t>
+  </si>
+  <si>
+    <t>Initial State: Shutdown
+      Event: Power button is held for 5 seconds
+           1. Device powers off/ goes to shutdown state</t>
+  </si>
+  <si>
+    <t>Event: Power button is pressed while in shutdown state
+           1. Device powers on to normal state</t>
+  </si>
+  <si>
+    <t>Yes :) this is an event that happen in this state and casues a state transistion</t>
+  </si>
+  <si>
+    <t>How do you get out of the Sleep State</t>
+  </si>
+  <si>
+    <t>Normal State: What happens when you hit the puase button?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Event: Processor is on, charger off </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this is not an event. What do you mean by this? </t>
+    </r>
+  </si>
+  <si>
+    <t>Good enumeration of battery and system states</t>
+  </si>
+  <si>
+    <t>Behavior Description</t>
+  </si>
+  <si>
+    <t>Product Architecture</t>
+  </si>
+  <si>
+    <t>Needs to be filled out</t>
+  </si>
+  <si>
+    <t>Let me know if you have questions about this</t>
+  </si>
+  <si>
+    <t>Major Components BOM</t>
+  </si>
+  <si>
+    <t>Rename the sheet to you project</t>
+  </si>
+  <si>
+    <t>If you adpat things you must update all the old information otherwise it will be confusing</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 16V X7R 0603
+RES SMD 1.1K OHM 1% 1/10W 0603
+RES SMD 100K OHM 1% 1/10W 0603
+THERMISTOR 10K OHM NTC 0402 SMD
+RES SMD 10K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Remove columes that do not match your parts</t>
+  </si>
+  <si>
+    <t>Device
+PN001
+PN002
+PN003
+PN004
+PN005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do these numbers come from? </t>
+  </si>
+  <si>
+    <t>MFG_PART_NUMBER
+LP503035</t>
+  </si>
+  <si>
+    <t>If there is not manufacture part number that is fine. Just fill out the vendor part number</t>
   </si>
 </sst>
 </file>
@@ -147,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +338,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +363,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -270,8 +415,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -300,8 +457,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -327,6 +494,12 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -352,6 +525,12 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -681,20 +860,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="9" customWidth="1"/>
-    <col min="4" max="4" width="55" style="10" customWidth="1"/>
-    <col min="5" max="5" width="66.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="67.1640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="59.5" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -749,274 +930,678 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="32">
+      <c r="A8" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="64">
-      <c r="A9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="32">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="48">
+      <c r="A11" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="48">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="32">
-      <c r="A13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="H13" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32">
+      <c r="A14" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="H14" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32">
+      <c r="A15" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="64">
-      <c r="A16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="48">
-      <c r="A17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="H16" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="48">
+      <c r="A17" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="64">
-      <c r="A18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" ht="64">
+      <c r="A18" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="32">
-      <c r="A19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="32">
+      <c r="A19" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="32">
-      <c r="A21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="32">
+      <c r="A21" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="32">
+      <c r="A22" s="13">
+        <v>42882</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>36</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="80">
+      <c r="A23" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="96">
+      <c r="A25" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="48">
+      <c r="A28" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="64">
+      <c r="A29" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="48">
+      <c r="A30" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="32">
+      <c r="A32" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="32">
+      <c r="A33" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="32">
+      <c r="A34" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="32">
+      <c r="A36" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="80">
+      <c r="A37" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="96">
+      <c r="A38" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="96">
+      <c r="A39" s="13">
+        <v>42892</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
